--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/52.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/52.xlsx
@@ -479,13 +479,13 @@
         <v>-13.21016389145201</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.943590446473321</v>
+        <v>-9.072850752429682</v>
       </c>
       <c r="F2" t="n">
-        <v>6.047410522571229</v>
+        <v>5.701852281366711</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.99767084838396</v>
+        <v>-15.78748701856289</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.80509253278916</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.21384176173223</v>
+        <v>-9.371499272552295</v>
       </c>
       <c r="F3" t="n">
-        <v>5.961079877632888</v>
+        <v>5.609839576995061</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.53138848267588</v>
+        <v>-15.32396712875442</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.31939245140462</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.25996594464363</v>
+        <v>-9.429760020197977</v>
       </c>
       <c r="F4" t="n">
-        <v>6.086294662011156</v>
+        <v>5.754614261818867</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.7363976695206</v>
+        <v>-14.55957302734024</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.78434324029892</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.22156940376273</v>
+        <v>-10.37906980694869</v>
       </c>
       <c r="F5" t="n">
-        <v>6.164900848272879</v>
+        <v>5.821777775396922</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.73394622553531</v>
+        <v>-13.61049890204068</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.20945957401789</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.81306655384907</v>
+        <v>-10.96891732687698</v>
       </c>
       <c r="F6" t="n">
-        <v>6.381421352669345</v>
+        <v>6.030966590202021</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.95753339011243</v>
+        <v>-12.86033613381546</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.59835386934866</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.64544898392033</v>
+        <v>-11.77256215221065</v>
       </c>
       <c r="F7" t="n">
-        <v>6.701501972543864</v>
+        <v>6.344867643135245</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.60829302845551</v>
+        <v>-11.56201173791001</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.950297308962668</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.44851774792896</v>
+        <v>-12.57387654763849</v>
       </c>
       <c r="F8" t="n">
-        <v>6.979687223324859</v>
+        <v>6.608127668676674</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.86785784124169</v>
+        <v>-10.85099495518155</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.270857432823142</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.17147471084908</v>
+        <v>-13.30070883219976</v>
       </c>
       <c r="F9" t="n">
-        <v>7.046615075451763</v>
+        <v>6.673065490771634</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.629561653865558</v>
+        <v>-9.680962034822175</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.551489829291292</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.21859709213033</v>
+        <v>-14.33252631145903</v>
       </c>
       <c r="F10" t="n">
-        <v>7.196495758383842</v>
+        <v>6.837138229984146</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.989164752665369</v>
+        <v>-9.062403094761985</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.802680925228908</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.12425714120673</v>
+        <v>-15.23232100886234</v>
       </c>
       <c r="F11" t="n">
-        <v>7.424144720195776</v>
+        <v>7.060597654886726</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.164428227453676</v>
+        <v>-8.285728413282269</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.032474092129719</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.39457710133373</v>
+        <v>-16.47209662645959</v>
       </c>
       <c r="F12" t="n">
-        <v>7.353839053935706</v>
+        <v>7.002624937903563</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.722157145157329</v>
+        <v>-7.857570833449302</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.243466196649388</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.37558335326426</v>
+        <v>-17.41389143137915</v>
       </c>
       <c r="F13" t="n">
-        <v>7.252923583631683</v>
+        <v>6.883511166649539</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.461332287944462</v>
+        <v>-7.573795169354889</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.459004684775844</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.75429448861791</v>
+        <v>-18.76641796104935</v>
       </c>
       <c r="F14" t="n">
-        <v>7.248236539214344</v>
+        <v>6.90726060400443</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.525468296212199</v>
+        <v>-6.665215536744783</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.680914636253935</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.84349553123247</v>
+        <v>-19.83908342517481</v>
       </c>
       <c r="F15" t="n">
-        <v>7.229278884699525</v>
+        <v>6.886234365640618</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.065300035931211</v>
+        <v>-6.193499865357393</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.911135857677376</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.81621435546419</v>
+        <v>-20.79420619438725</v>
       </c>
       <c r="F16" t="n">
-        <v>7.117941941333487</v>
+        <v>6.802548365876305</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.452567170635589</v>
+        <v>-5.59342725690972</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.154392361272525</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.90032249227331</v>
+        <v>-21.84957672645879</v>
       </c>
       <c r="F17" t="n">
-        <v>7.435744500513545</v>
+        <v>7.11220751268881</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.546635366553391</v>
+        <v>-5.64713188316648</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.399005403954189</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.76255537282371</v>
+        <v>-22.70365310233878</v>
       </c>
       <c r="F18" t="n">
-        <v>7.826759217184535</v>
+        <v>7.486359343299658</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.003330983227443</v>
+        <v>-5.110295097444345</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.650678238697727</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.37795906789905</v>
+        <v>-23.32386167255703</v>
       </c>
       <c r="F19" t="n">
-        <v>8.137099163744811</v>
+        <v>7.792405014527846</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.12989109144453</v>
+        <v>-4.254189414623878</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.9153732606913575</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.27713842706879</v>
+        <v>-24.22334215469214</v>
       </c>
       <c r="F20" t="n">
-        <v>8.35008474637401</v>
+        <v>8.009318288009563</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.69602526757257</v>
+        <v>-3.781504912826199</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.1969790853240277</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.39407887605109</v>
+        <v>-24.38141861920314</v>
       </c>
       <c r="F21" t="n">
-        <v>8.197978371958836</v>
+        <v>7.864255572523239</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.659104973558902</v>
+        <v>-3.738169390420086</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4805788009511121</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.06766476495505</v>
+        <v>-25.06317410508034</v>
       </c>
       <c r="F22" t="n">
-        <v>8.596246224404144</v>
+        <v>8.259171795441064</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.063238177677302</v>
+        <v>-4.099359841217625</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.102542258690067</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.20358905305785</v>
+        <v>-25.20783095917857</v>
       </c>
       <c r="F23" t="n">
-        <v>8.223403624077468</v>
+        <v>7.92031681329151</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.951154973049286</v>
+        <v>-3.98334894573709</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.647859071842707</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.61343050121524</v>
+        <v>-25.61459571616816</v>
       </c>
       <c r="F24" t="n">
-        <v>8.1898087749856</v>
+        <v>7.896881591204821</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.827786203371701</v>
+        <v>-3.841834244320873</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.093064239541153</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.64095052178855</v>
+        <v>-25.67945498444607</v>
       </c>
       <c r="F25" t="n">
-        <v>8.308739253999839</v>
+        <v>8.022960467570643</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.710505354515519</v>
+        <v>-3.73789445206041</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.422985628832452</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.97222506059275</v>
+        <v>-26.00152563435253</v>
       </c>
       <c r="F26" t="n">
-        <v>8.205598092212721</v>
+        <v>7.925370442188417</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.527684437633656</v>
+        <v>-3.547493091833188</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.621048593283699</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.9385123807753</v>
+        <v>-25.95419695957969</v>
       </c>
       <c r="F27" t="n">
-        <v>8.125394645004308</v>
+        <v>7.857080990565973</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.653907329330737</v>
+        <v>-3.656682897533183</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.679694031092733</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.88381273950257</v>
+        <v>-25.89973297975811</v>
       </c>
       <c r="F28" t="n">
-        <v>8.000546445105607</v>
+        <v>7.717647965301591</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.895041363069648</v>
+        <v>-3.871881079342634</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.593952843711344</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.74286100710855</v>
+        <v>-25.78881499008301</v>
       </c>
       <c r="F29" t="n">
-        <v>7.947260772539782</v>
+        <v>7.663026877845909</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.687397439999872</v>
+        <v>-3.671883061132427</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.362774518520681</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.61612751560064</v>
+        <v>-25.65548297794287</v>
       </c>
       <c r="F30" t="n">
-        <v>8.052549071992944</v>
+        <v>7.760904933890654</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.84044646021965</v>
+        <v>-3.82830989548537</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.991709513079366</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.28917343673422</v>
+        <v>-25.32913114500716</v>
       </c>
       <c r="F31" t="n">
-        <v>7.873839138203382</v>
+        <v>7.596570348621308</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.248913216578662</v>
+        <v>-4.207122585907872</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.492768993268383</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.85757258125387</v>
+        <v>-24.90575225571143</v>
       </c>
       <c r="F32" t="n">
-        <v>8.023981667192297</v>
+        <v>7.728200361392022</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.145078162740933</v>
+        <v>-4.135167289489746</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8895671137796056</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.71844067895485</v>
+        <v>-24.74670696079014</v>
       </c>
       <c r="F33" t="n">
-        <v>8.04812387363244</v>
+        <v>7.735322574137921</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.285047972421825</v>
+        <v>-4.267268625162761</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.203065128100198</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.32919342316749</v>
+        <v>-24.35252390683145</v>
       </c>
       <c r="F34" t="n">
-        <v>8.169541890186608</v>
+        <v>7.85053483914511</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.313497546496897</v>
+        <v>-4.304188919176429</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.5359029631472517</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.17520175714311</v>
+        <v>-24.20447614629721</v>
       </c>
       <c r="F35" t="n">
-        <v>8.065300974960785</v>
+        <v>7.746398662342021</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.475135117380846</v>
+        <v>-4.470408796054984</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.294053966665939</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.83660862105039</v>
+        <v>-23.85509495266291</v>
       </c>
       <c r="F36" t="n">
-        <v>8.219030794928333</v>
+        <v>7.883475073094893</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.396280177365131</v>
+        <v>-4.412318248346245</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.044022534439938</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.24869876194268</v>
+        <v>-23.28144261134984</v>
       </c>
       <c r="F37" t="n">
-        <v>8.177999517822363</v>
+        <v>7.849880224003024</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.514202549060557</v>
+        <v>-4.5256059448357</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.750827325628498</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.75217317667022</v>
+        <v>-22.77830541314231</v>
       </c>
       <c r="F38" t="n">
-        <v>8.169384782552507</v>
+        <v>7.820108327340939</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.478434377696962</v>
+        <v>-4.493634541296205</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.392184387321379</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.57563656515239</v>
+        <v>-22.58988099064419</v>
       </c>
       <c r="F39" t="n">
-        <v>8.334085952301422</v>
+        <v>7.985987804345609</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.715444336040728</v>
+        <v>-4.714737351687275</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.950506253204618</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.8715456106272</v>
+        <v>-21.89415601763486</v>
       </c>
       <c r="F40" t="n">
-        <v>8.613030556647237</v>
+        <v>8.254720412474878</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.668390599627565</v>
+        <v>-4.679191749471989</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.410475049879422</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.1893188018477</v>
+        <v>-21.22754832614554</v>
       </c>
       <c r="F41" t="n">
-        <v>8.596612808883712</v>
+        <v>8.243461032030993</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.701684325754075</v>
+        <v>-4.705271616732707</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.774413005596496</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.48721787735445</v>
+        <v>-20.52115312632021</v>
       </c>
       <c r="F42" t="n">
-        <v>8.593261179356229</v>
+        <v>8.252232874934949</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.042620984055463</v>
+        <v>-5.04229367648442</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.043870202498457</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.63380920891938</v>
+        <v>-19.69141534142298</v>
       </c>
       <c r="F43" t="n">
-        <v>8.712558242850038</v>
+        <v>8.359118435334802</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.199375125979449</v>
+        <v>-5.201941217336428</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.227169497186259</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.94982803155909</v>
+        <v>-19.00972531705998</v>
       </c>
       <c r="F44" t="n">
-        <v>8.47545663838638</v>
+        <v>8.140555531695027</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.985342159122911</v>
+        <v>-5.002008660640429</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.341251189285369</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.48608557260231</v>
+        <v>-18.54037935248694</v>
       </c>
       <c r="F45" t="n">
-        <v>8.531177479280766</v>
+        <v>8.177423456497326</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.177733549382076</v>
+        <v>-5.191349544337471</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.398455187882652</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.81210691461309</v>
+        <v>-17.85895117418079</v>
       </c>
       <c r="F46" t="n">
-        <v>8.602425791345439</v>
+        <v>8.26550847001646</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.313579283667826</v>
+        <v>-5.32567657149358</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.418042127267893</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.66987213654058</v>
+        <v>-17.70816712235263</v>
       </c>
       <c r="F47" t="n">
-        <v>8.458960336805804</v>
+        <v>8.134768733838984</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.611193511865943</v>
+        <v>-5.622911122909287</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.419268097414984</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.02198643811492</v>
+        <v>-17.0671941598274</v>
       </c>
       <c r="F48" t="n">
-        <v>8.400044974018037</v>
+        <v>8.083708752756252</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.705170061663853</v>
+        <v>-5.718340918322629</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.414810302597614</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.14611137800345</v>
+        <v>-16.20607412501855</v>
       </c>
       <c r="F49" t="n">
-        <v>8.327277954823723</v>
+        <v>8.027385665931146</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.923837703726361</v>
+        <v>-5.94453663451913</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.421199437387225</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.58984561486419</v>
+        <v>-15.6514710843402</v>
       </c>
       <c r="F50" t="n">
-        <v>8.073863341019273</v>
+        <v>7.771090745501517</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.157928078536423</v>
+        <v>-6.171190581315091</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.450330082337523</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.86891795888455</v>
+        <v>-14.93229779694134</v>
       </c>
       <c r="F51" t="n">
-        <v>7.892456392844317</v>
+        <v>7.608353421178862</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.097729670070167</v>
+        <v>-6.12733136679531</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.507880812002676</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.17712067672774</v>
+        <v>-14.26593885920601</v>
       </c>
       <c r="F52" t="n">
-        <v>7.756191704867632</v>
+        <v>7.483452852068795</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.267536837927354</v>
+        <v>-6.31681626582361</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.600341058573735</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.69545485518064</v>
+        <v>-13.77229358055873</v>
       </c>
       <c r="F53" t="n">
-        <v>7.808141962543601</v>
+        <v>7.523855698638362</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.295410350677389</v>
+        <v>-6.351288299205875</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.726281912762583</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.25383838802638</v>
+        <v>-13.32718146854573</v>
       </c>
       <c r="F54" t="n">
-        <v>7.589945643383395</v>
+        <v>7.30311947272686</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.519236360059537</v>
+        <v>-6.570558187199103</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.887275412111025</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.65991916191432</v>
+        <v>-12.73442745738658</v>
       </c>
       <c r="F55" t="n">
-        <v>7.543153753027066</v>
+        <v>7.276594467169523</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.857462911672688</v>
+        <v>-6.890416237925313</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.088398259398584</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.37080183826048</v>
+        <v>-12.45384631518555</v>
       </c>
       <c r="F56" t="n">
-        <v>7.593611488179078</v>
+        <v>7.317468636641392</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.801414763207259</v>
+        <v>-6.848520868831789</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.327353257645522</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.91516351476273</v>
+        <v>-11.99683329988942</v>
       </c>
       <c r="F57" t="n">
-        <v>7.228022023626719</v>
+        <v>6.967275720230902</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.044146057892861</v>
+        <v>-7.084994042759046</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.610904922651114</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.48662625814735</v>
+        <v>-11.56715701292681</v>
       </c>
       <c r="F58" t="n">
-        <v>7.391256855457359</v>
+        <v>7.112914497042263</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.815740925869987</v>
+        <v>-7.822876230918728</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.942180755874951</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.47980516836681</v>
+        <v>-11.52480341323382</v>
       </c>
       <c r="F59" t="n">
-        <v>7.240171680663841</v>
+        <v>6.970784457392486</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.808959112997973</v>
+        <v>-7.841833885433546</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.318868348185621</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.2537010982902</v>
+        <v>-11.29305656063243</v>
       </c>
       <c r="F60" t="n">
-        <v>7.090264813126077</v>
+        <v>6.823234204366233</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.054479068188861</v>
+        <v>-8.078411797783536</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.744602117806408</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.31168690757621</v>
+        <v>-11.33670629830674</v>
       </c>
       <c r="F61" t="n">
-        <v>6.913675832396876</v>
+        <v>6.652458206098758</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.526456585633087</v>
+        <v>-8.543816979201216</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.21039982833069</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.40764039510322</v>
+        <v>-11.41040287100282</v>
       </c>
       <c r="F62" t="n">
-        <v>6.955152247799465</v>
+        <v>6.670185184146455</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.761437237036386</v>
+        <v>-8.766922911927068</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.712691268149459</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.04730094399039</v>
+        <v>-11.04463011421068</v>
       </c>
       <c r="F63" t="n">
-        <v>7.288115693670242</v>
+        <v>6.982619899161405</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.805532113007319</v>
+        <v>-8.811240357046312</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.245611668959986</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.7820770730227</v>
+        <v>-10.80165006577108</v>
       </c>
       <c r="F64" t="n">
-        <v>7.131138982597946</v>
+        <v>6.833341462160045</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.04886565362364</v>
+        <v>-9.022039525100944</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.790557792905503</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.80760706356407</v>
+        <v>-10.83940826716662</v>
       </c>
       <c r="F65" t="n">
-        <v>7.10689203773507</v>
+        <v>6.807575810167529</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.11614699792727</v>
+        <v>-9.090014761455185</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.33800706311045</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.51724597114027</v>
+        <v>-10.55788447916099</v>
       </c>
       <c r="F66" t="n">
-        <v>6.927422750380688</v>
+        <v>6.636433227420485</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.515514603811281</v>
+        <v>-9.470529451247112</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.87217696598425</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.75474034468918</v>
+        <v>-10.79176537712558</v>
       </c>
       <c r="F67" t="n">
-        <v>6.685031855568973</v>
+        <v>6.394932609202006</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.567831445966819</v>
+        <v>-9.517831941414267</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.37286483585289</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.92033179103133</v>
+        <v>-10.93382995526115</v>
       </c>
       <c r="F68" t="n">
-        <v>6.656281158528541</v>
+        <v>6.362070929069273</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.392342218676323</v>
+        <v>-9.343363913745426</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.8280447917492</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.72153826468256</v>
+        <v>-10.73027083067799</v>
       </c>
       <c r="F69" t="n">
-        <v>6.646488116002931</v>
+        <v>6.362201852097691</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.39587714044359</v>
+        <v>-9.351978649015281</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.21803882981193</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.98559692069733</v>
+        <v>-10.98015052271518</v>
       </c>
       <c r="F70" t="n">
-        <v>6.441541207318551</v>
+        <v>6.156076636157556</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.522702278071389</v>
+        <v>-9.455486395281968</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.5338622660787</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.9433218748214</v>
+        <v>-10.94910867267745</v>
       </c>
       <c r="F71" t="n">
-        <v>6.094228597533242</v>
+        <v>5.833272817291958</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.490272643932434</v>
+        <v>-9.424287437610134</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.77106673010912</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.97751896984399</v>
+        <v>-10.99508884025759</v>
       </c>
       <c r="F72" t="n">
-        <v>6.344134474176109</v>
+        <v>6.053668643329575</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.783003443170587</v>
+        <v>-9.685635986936671</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.92042868306346</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.4200911751057</v>
+        <v>-11.43568410779019</v>
       </c>
       <c r="F73" t="n">
-        <v>6.468485166566823</v>
+        <v>6.167754970292375</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.503247116048584</v>
+        <v>-9.434355418495421</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.98197850187283</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.54577728238627</v>
+        <v>-11.56631910554494</v>
       </c>
       <c r="F74" t="n">
-        <v>6.420986291857041</v>
+        <v>6.137930704418923</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.582534102058078</v>
+        <v>-9.500733393902973</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.96039845799661</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.08133102242991</v>
+        <v>-12.08723565101153</v>
       </c>
       <c r="F75" t="n">
-        <v>6.384065997843373</v>
+        <v>6.09451662819576</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.767148664429257</v>
+        <v>-9.650692630652104</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.8563263446855</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.96930018701327</v>
+        <v>-12.00152034430675</v>
       </c>
       <c r="F76" t="n">
-        <v>6.271786408672731</v>
+        <v>5.986007622243534</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.8223850901185</v>
+        <v>-9.691920292300699</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.67797196322135</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.6774235708137</v>
+        <v>-12.68474216810223</v>
       </c>
       <c r="F77" t="n">
-        <v>6.229812485762157</v>
+        <v>5.956864156117851</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.575595181551963</v>
+        <v>-9.449228274523623</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.43234258938945</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.37352822060544</v>
+        <v>-13.3812657715849</v>
       </c>
       <c r="F78" t="n">
-        <v>6.293074493093378</v>
+        <v>6.016853087738641</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.938327340730947</v>
+        <v>-8.846641943930338</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.12528940943111</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.62132623649079</v>
+        <v>-13.65850837656129</v>
       </c>
       <c r="F79" t="n">
-        <v>6.494643587644592</v>
+        <v>6.200511912002374</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.173425822859821</v>
+        <v>-9.039989072296949</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.76824659103005</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.21964447635767</v>
+        <v>-14.25106600317781</v>
       </c>
       <c r="F80" t="n">
-        <v>6.494329372376391</v>
+        <v>6.205748833139064</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.575238506021357</v>
+        <v>-8.463967024169527</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.36577987904672</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.8158155785585</v>
+        <v>-14.83596463263192</v>
       </c>
       <c r="F81" t="n">
-        <v>6.602026655552429</v>
+        <v>6.295090707731003</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.436931418801363</v>
+        <v>-8.32275344571867</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.91796415880122</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.66146051140843</v>
+        <v>-15.68687267122422</v>
       </c>
       <c r="F82" t="n">
-        <v>6.620486802559262</v>
+        <v>6.309335133222801</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.332363196004497</v>
+        <v>-8.21018582588551</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.43571953111038</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.68455851697512</v>
+        <v>-16.70694635483447</v>
       </c>
       <c r="F83" t="n">
-        <v>6.796840121837313</v>
+        <v>6.478618608966319</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.202919597808352</v>
+        <v>-8.07085753904386</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.916452325725675</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.59897731665263</v>
+        <v>-17.6311581970376</v>
       </c>
       <c r="F84" t="n">
-        <v>6.746460940502351</v>
+        <v>6.412345371981502</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.845604468651963</v>
+        <v>-7.722995052539199</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.36070335369231</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.44658609492882</v>
+        <v>-18.50145593613849</v>
       </c>
       <c r="F85" t="n">
-        <v>6.953947755938025</v>
+        <v>6.63533347398178</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.612849508731758</v>
+        <v>-7.507849239941114</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.775306567919516</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.72375332944204</v>
+        <v>-19.78346732270315</v>
       </c>
       <c r="F86" t="n">
-        <v>6.822841435280981</v>
+        <v>6.502603707772361</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.651236140663698</v>
+        <v>-7.523507634139819</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.15816150158666</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.77027346479257</v>
+        <v>-20.83491016392217</v>
       </c>
       <c r="F87" t="n">
-        <v>6.912628448169539</v>
+        <v>6.578172479774804</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.105535865917714</v>
+        <v>-7.00583797977797</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.519507921071797</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.10299134026323</v>
+        <v>-22.19160004589604</v>
       </c>
       <c r="F88" t="n">
-        <v>7.224015778957151</v>
+        <v>6.884532366271194</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.166087766560698</v>
+        <v>-7.070068817519478</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.867108343137907</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.76073872608259</v>
+        <v>-23.82561108666334</v>
       </c>
       <c r="F89" t="n">
-        <v>7.061959254382265</v>
+        <v>6.718024458730122</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.836803257788445</v>
+        <v>-6.748299290578377</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.202172433795222</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.99315646948279</v>
+        <v>-25.10196659840037</v>
       </c>
       <c r="F90" t="n">
-        <v>7.362610896839663</v>
+        <v>7.008359366548239</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.24695892121404</v>
+        <v>-7.144812774442892</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.543600528581587</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.73367339386754</v>
+        <v>-26.84123975401516</v>
       </c>
       <c r="F91" t="n">
-        <v>7.470988979763471</v>
+        <v>7.103618962024638</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.773488881245858</v>
+        <v>-6.696401402113775</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.896662267601574</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.72666228625213</v>
+        <v>-28.82617688015209</v>
       </c>
       <c r="F92" t="n">
-        <v>7.176935857938304</v>
+        <v>6.832398816355441</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.032768846723401</v>
+        <v>-6.947708155160706</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.26815905051098</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.59029922656047</v>
+        <v>-30.68223337711507</v>
       </c>
       <c r="F93" t="n">
-        <v>7.218019504255641</v>
+        <v>6.853058470239684</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.290736398562892</v>
+        <v>-6.254064858303217</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.669858579633015</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.57576004481107</v>
+        <v>-32.67139931706988</v>
       </c>
       <c r="F94" t="n">
-        <v>7.168059276611614</v>
+        <v>6.822134450927527</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.651481711063813</v>
+        <v>-6.600618114523707</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.099322759105703</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.92408712862295</v>
+        <v>-34.99466773324269</v>
       </c>
       <c r="F95" t="n">
-        <v>7.136873411242623</v>
+        <v>6.783904926629687</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.008125949421394</v>
+        <v>-6.009592287339666</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.560704504830859</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.3586924881618</v>
+        <v>-37.41525123643806</v>
       </c>
       <c r="F96" t="n">
-        <v>6.895556085263927</v>
+        <v>6.547981629421784</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.938487990606252</v>
+        <v>-5.952797877612259</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.056795101948434</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.33633720161589</v>
+        <v>-39.40615845267082</v>
       </c>
       <c r="F97" t="n">
-        <v>6.828785340771124</v>
+        <v>6.482048792310851</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.515318578155982</v>
+        <v>-5.552278149078175</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.577386380950624</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.75126482998363</v>
+        <v>-41.82116463485561</v>
       </c>
       <c r="F98" t="n">
-        <v>6.752431030598178</v>
+        <v>6.394304178665603</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.700757955606191</v>
+        <v>-5.737128372900505</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.134840751141888</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.12025156767975</v>
+        <v>-44.17712453122422</v>
       </c>
       <c r="F99" t="n">
-        <v>6.580188694412429</v>
+        <v>6.229812485762157</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.432758516436058</v>
+        <v>-5.480506144899833</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.7180838734407906</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.23748641403233</v>
+        <v>-46.30612935783149</v>
       </c>
       <c r="F100" t="n">
-        <v>6.307423657007909</v>
+        <v>5.96830682880152</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.496635862000839</v>
+        <v>-5.544108552104938</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3421119844337308</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.67218341969107</v>
+        <v>-48.72752458380305</v>
       </c>
       <c r="F101" t="n">
-        <v>6.284695419274673</v>
+        <v>5.931962596112888</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.50695259664012</v>
+        <v>-5.574744540754577</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.008266039708780919</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.1482913792382</v>
+        <v>-51.18365368921371</v>
       </c>
       <c r="F102" t="n">
-        <v>5.546106246761538</v>
+        <v>5.237494484176371</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.186086438595097</v>
+        <v>-5.26401182510905</v>
       </c>
     </row>
   </sheetData>
